--- a/src/main/resources/static/excel/xlsx/dict_data.xlsx
+++ b/src/main/resources/static/excel/xlsx/dict_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD58B05E-0A7D-47C5-97C5-662D963E15F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863D4D1-5FD7-4B06-87B0-328DAA725798}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/excel/xlsx/dict_data.xlsx
+++ b/src/main/resources/static/excel/xlsx/dict_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863D4D1-5FD7-4B06-87B0-328DAA725798}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCAA8DB-DEFA-4060-AC19-AE54A6AE15E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>sys_uvsl_status</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>样本，添加时请删除。</t>
@@ -55,6 +52,10 @@
   </si>
   <si>
     <t>505427105488617000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +475,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,22 +505,22 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
+      <c r="F2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
